--- a/testData/WebForm/NewUsersList_Test.xlsx
+++ b/testData/WebForm/NewUsersList_Test.xlsx
@@ -9,9 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$44</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="104">
   <si>
     <t>UserName</t>
   </si>
@@ -126,20 +129,217 @@
     <t>Jerry</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Mary</t>
   </si>
   <si>
     <t>Tyler</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Run </t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Joe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,12 +364,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,10 +403,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,89 +693,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.54296875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="0">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -561,288 +785,1357 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s" s="0">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s" s="0">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s" s="0">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s" s="0">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s" s="0">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s" s="0">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K44">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="ON"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
@@ -851,7 +2144,38 @@
     <hyperlink ref="B4:B10" r:id="rId5" display="sudhakar@rsoft.in"/>
     <hyperlink ref="E4:E10" r:id="rId6" display="sudhakar@rsoft.in"/>
     <hyperlink ref="B11" r:id="rId7" display="sudhakar@rsoft.in"/>
-    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="B12:B18" r:id="rId8" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E14" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="B18:B25" r:id="rId16" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="E18:E25" r:id="rId17" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="B26:B34" r:id="rId18" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="E26" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E28" r:id="rId21"/>
+    <hyperlink ref="E29" r:id="rId22"/>
+    <hyperlink ref="E30" r:id="rId23"/>
+    <hyperlink ref="E31" r:id="rId24"/>
+    <hyperlink ref="E32" r:id="rId25"/>
+    <hyperlink ref="E33" r:id="rId26"/>
+    <hyperlink ref="B34:B36" r:id="rId27" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="E34" r:id="rId28"/>
+    <hyperlink ref="E35" r:id="rId29"/>
+    <hyperlink ref="B36:B44" r:id="rId30" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="E36" r:id="rId31"/>
+    <hyperlink ref="E37" r:id="rId32"/>
+    <hyperlink ref="E38" r:id="rId33"/>
+    <hyperlink ref="E39" r:id="rId34"/>
+    <hyperlink ref="E40" r:id="rId35"/>
+    <hyperlink ref="E41" r:id="rId36"/>
+    <hyperlink ref="E42" r:id="rId37"/>
+    <hyperlink ref="E43" r:id="rId38"/>
+    <hyperlink ref="E44" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/WebForm/NewUsersList_Test.xlsx
+++ b/testData/WebForm/NewUsersList_Test.xlsx
@@ -14,7 +14,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="173">
   <si>
     <t>UserName</t>
   </si>
@@ -334,12 +334,220 @@
   </si>
   <si>
     <t>Joe</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Willie</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Beverly</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Theresa</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Cheryl</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Lori</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +597,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -403,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +632,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -694,49 +916,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -747,31 +969,31 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>22</v>
       </c>
     </row>
@@ -785,28 +1007,28 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>22</v>
       </c>
     </row>
@@ -817,28 +1039,28 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -849,28 +1071,28 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -881,28 +1103,28 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -913,28 +1135,28 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -945,28 +1167,28 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -977,28 +1199,28 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="F9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1009,28 +1231,28 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="F10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1041,28 +1263,28 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1073,28 +1295,28 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="F12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1105,28 +1327,28 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1137,28 +1359,28 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="F14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1169,28 +1391,28 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="F15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1201,28 +1423,28 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="F16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1233,28 +1455,28 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="F17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1265,28 +1487,28 @@
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="F18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1457,28 +1679,28 @@
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="F24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1489,28 +1711,28 @@
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="F25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1521,28 +1743,28 @@
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="F26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1553,28 +1775,28 @@
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="F27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1585,28 +1807,28 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="F28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1617,28 +1839,28 @@
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="F29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1649,28 +1871,28 @@
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="F30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1681,28 +1903,28 @@
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="F31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1713,28 +1935,28 @@
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="F32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1745,28 +1967,28 @@
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>81</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="F33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1777,28 +1999,28 @@
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="F34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1809,28 +2031,28 @@
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="F35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K35" s="3" t="s">
@@ -1844,28 +2066,28 @@
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>87</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="F36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1876,31 +2098,31 @@
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s" s="0">
         <v>67</v>
       </c>
     </row>
@@ -1911,28 +2133,28 @@
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="F38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1943,28 +2165,28 @@
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="F39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1975,28 +2197,28 @@
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>95</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="F40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -2007,28 +2229,28 @@
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="F41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -2039,28 +2261,28 @@
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="F42" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -2071,28 +2293,28 @@
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>101</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="F43" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -2103,28 +2325,1119 @@
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="F44" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -2176,6 +3489,41 @@
     <hyperlink ref="E42" r:id="rId37"/>
     <hyperlink ref="E43" r:id="rId38"/>
     <hyperlink ref="E44" r:id="rId39"/>
+    <hyperlink ref="B45:B78" r:id="rId40" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="E45" r:id="rId41"/>
+    <hyperlink ref="E46" r:id="rId42"/>
+    <hyperlink ref="E47" r:id="rId43"/>
+    <hyperlink ref="E48" r:id="rId44"/>
+    <hyperlink ref="E49" r:id="rId45"/>
+    <hyperlink ref="E50" r:id="rId46"/>
+    <hyperlink ref="E51" r:id="rId47"/>
+    <hyperlink ref="E52" r:id="rId48"/>
+    <hyperlink ref="E53" r:id="rId49"/>
+    <hyperlink ref="E54" r:id="rId50"/>
+    <hyperlink ref="E55" r:id="rId51"/>
+    <hyperlink ref="E56" r:id="rId52"/>
+    <hyperlink ref="E57" r:id="rId53"/>
+    <hyperlink ref="E58" r:id="rId54"/>
+    <hyperlink ref="E59" r:id="rId55"/>
+    <hyperlink ref="E60" r:id="rId56"/>
+    <hyperlink ref="E61" r:id="rId57"/>
+    <hyperlink ref="E62" r:id="rId58"/>
+    <hyperlink ref="E63" r:id="rId59"/>
+    <hyperlink ref="E64" r:id="rId60"/>
+    <hyperlink ref="E65" r:id="rId61"/>
+    <hyperlink ref="E66" r:id="rId62"/>
+    <hyperlink ref="E67" r:id="rId63"/>
+    <hyperlink ref="E68" r:id="rId64"/>
+    <hyperlink ref="E69" r:id="rId65"/>
+    <hyperlink ref="E70" r:id="rId66"/>
+    <hyperlink ref="E71" r:id="rId67"/>
+    <hyperlink ref="E72" r:id="rId68"/>
+    <hyperlink ref="E73" r:id="rId69"/>
+    <hyperlink ref="E74" r:id="rId70"/>
+    <hyperlink ref="E75" r:id="rId71"/>
+    <hyperlink ref="E76" r:id="rId72"/>
+    <hyperlink ref="E77" r:id="rId73"/>
+    <hyperlink ref="E78" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
